--- a/Code/Results/Cases/Case_6_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_7/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.448302998296754</v>
+        <v>3.448302998296811</v>
       </c>
       <c r="C2">
-        <v>0.9029792202543376</v>
+        <v>0.9029792202541103</v>
       </c>
       <c r="D2">
-        <v>0.02721432060388906</v>
+        <v>0.02721432060401696</v>
       </c>
       <c r="E2">
-        <v>0.05605249652796829</v>
+        <v>0.05605249652801803</v>
       </c>
       <c r="F2">
-        <v>6.726400190158358</v>
+        <v>6.726400190158387</v>
       </c>
       <c r="G2">
-        <v>0.0008003039932639014</v>
+        <v>0.0008003039932528319</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2896736897725134</v>
+        <v>0.2896736897724992</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.971933580995369</v>
+        <v>2.971933580995824</v>
       </c>
       <c r="C3">
         <v>0.7731251663113028</v>
       </c>
       <c r="D3">
-        <v>0.02290652906204826</v>
+        <v>0.02290652906184221</v>
       </c>
       <c r="E3">
-        <v>0.050230215387149</v>
+        <v>0.05023021538717032</v>
       </c>
       <c r="F3">
-        <v>5.980981341814868</v>
+        <v>5.980981341814839</v>
       </c>
       <c r="G3">
-        <v>0.0008131060406593171</v>
+        <v>0.0008131060406644938</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2560591008757171</v>
+        <v>0.256059100875774</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.688273371566538</v>
+        <v>2.688273371566879</v>
       </c>
       <c r="C4">
-        <v>0.6959207877530105</v>
+        <v>0.6959207877529252</v>
       </c>
       <c r="D4">
-        <v>0.02038357765540511</v>
+        <v>0.02038357765563958</v>
       </c>
       <c r="E4">
         <v>0.04682356227590745</v>
       </c>
       <c r="F4">
-        <v>5.538808353936645</v>
+        <v>5.538808353936702</v>
       </c>
       <c r="G4">
-        <v>0.0008211020245911831</v>
+        <v>0.0008211020246504814</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2361562406330648</v>
+        <v>0.2361562406331217</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>2.574581973521276</v>
       </c>
       <c r="C5">
-        <v>0.6649989549755446</v>
+        <v>0.6649989549758857</v>
       </c>
       <c r="D5">
-        <v>0.01938103737325036</v>
+        <v>0.01938103737332497</v>
       </c>
       <c r="E5">
-        <v>0.04547292519750457</v>
+        <v>0.04547292519751167</v>
       </c>
       <c r="F5">
-        <v>5.361966604665525</v>
+        <v>5.36196660466544</v>
       </c>
       <c r="G5">
-        <v>0.00082439915240148</v>
+        <v>0.0008243991525579186</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2282058723527456</v>
+        <v>0.2282058723526319</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.555809928391625</v>
+        <v>2.555809928391511</v>
       </c>
       <c r="C6">
-        <v>0.6598944268791911</v>
+        <v>0.6598944268786227</v>
       </c>
       <c r="D6">
-        <v>0.01921597419513077</v>
+        <v>0.01921597419477195</v>
       </c>
       <c r="E6">
-        <v>0.04525079754970207</v>
+        <v>0.04525079754974826</v>
       </c>
       <c r="F6">
-        <v>5.332789360388887</v>
+        <v>5.33278936038883</v>
       </c>
       <c r="G6">
-        <v>0.0008249491007783714</v>
+        <v>0.0008249491007590526</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2268947211476018</v>
+        <v>0.2268947211476728</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.686732779364206</v>
+        <v>2.68673277936432</v>
       </c>
       <c r="C7">
-        <v>0.6955016980893731</v>
+        <v>0.6955016980899416</v>
       </c>
       <c r="D7">
-        <v>0.02036995974770406</v>
+        <v>0.020369959747498</v>
       </c>
       <c r="E7">
-        <v>0.04680520065358351</v>
+        <v>0.0468052006536368</v>
       </c>
       <c r="F7">
         <v>5.536410536305681</v>
       </c>
       <c r="G7">
-        <v>0.0008211463285166137</v>
+        <v>0.0008211463285372234</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.236048401389354</v>
+        <v>0.2360484013893966</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.282012790167869</v>
+        <v>3.282012790167698</v>
       </c>
       <c r="C8">
-        <v>0.8576194665836283</v>
+        <v>0.8576194665841115</v>
       </c>
       <c r="D8">
-        <v>0.0257003740624242</v>
+        <v>0.02570037406264447</v>
       </c>
       <c r="E8">
-        <v>0.05400702242321032</v>
+        <v>0.05400702242320676</v>
       </c>
       <c r="F8">
-        <v>6.465803389734759</v>
+        <v>6.465803389734788</v>
       </c>
       <c r="G8">
-        <v>0.0008046929908987037</v>
+        <v>0.0008046929907470357</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.536332698958404</v>
+        <v>4.536332698958347</v>
       </c>
       <c r="C9">
-        <v>1.200684366356029</v>
+        <v>1.200684366356711</v>
       </c>
       <c r="D9">
-        <v>0.03739350218127413</v>
+        <v>0.03739350218128834</v>
       </c>
       <c r="E9">
-        <v>0.06971534763778919</v>
+        <v>0.06971534763782472</v>
       </c>
       <c r="F9">
         <v>8.440707384059323</v>
       </c>
       <c r="G9">
-        <v>0.0007732591543397735</v>
+        <v>0.0007732591543417375</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3671815133470062</v>
+        <v>0.3671815133470346</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.539446936683134</v>
+        <v>5.539446936682964</v>
       </c>
       <c r="C10">
-        <v>1.476752153905977</v>
+        <v>1.47675215390683</v>
       </c>
       <c r="D10">
-        <v>0.04720263424927396</v>
+        <v>0.04720263424910343</v>
       </c>
       <c r="E10">
-        <v>0.08264795761280297</v>
+        <v>0.08264795761272126</v>
       </c>
       <c r="F10">
-        <v>10.03367899497422</v>
+        <v>10.03367899497417</v>
       </c>
       <c r="G10">
-        <v>0.0007502626377943449</v>
+        <v>0.0007502626375769946</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4393644174027571</v>
+        <v>0.4393644174029987</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.021757004846563</v>
+        <v>6.021757004846904</v>
       </c>
       <c r="C11">
-        <v>1.610093925693207</v>
+        <v>1.610093925693718</v>
       </c>
       <c r="D11">
-        <v>0.05206483841546827</v>
+        <v>0.05206483841547538</v>
       </c>
       <c r="E11">
-        <v>0.08895713121204096</v>
+        <v>0.0889571312120232</v>
       </c>
       <c r="F11">
-        <v>10.80332075185049</v>
+        <v>10.80332075185044</v>
       </c>
       <c r="G11">
-        <v>0.0007397049687255249</v>
+        <v>0.0007397049686075572</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4742778080896528</v>
+        <v>0.4742778080897381</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.209020243982195</v>
+        <v>6.209020243982025</v>
       </c>
       <c r="C12">
-        <v>1.661977444805302</v>
+        <v>1.661977444805359</v>
       </c>
       <c r="D12">
-        <v>0.05397826454021981</v>
+        <v>0.05397826453995691</v>
       </c>
       <c r="E12">
-        <v>0.09142086229210022</v>
+        <v>0.09142086229214641</v>
       </c>
       <c r="F12">
         <v>11.10274585811283</v>
       </c>
       <c r="G12">
-        <v>0.0007356806587984143</v>
+        <v>0.0007356806587959024</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4878662628900798</v>
+        <v>0.4878662628900372</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.168467777077467</v>
+        <v>6.16846777707724</v>
       </c>
       <c r="C13">
         <v>1.650736491445514</v>
       </c>
       <c r="D13">
-        <v>0.0535626889910148</v>
+        <v>0.05356268899122796</v>
       </c>
       <c r="E13">
-        <v>0.09088669002325034</v>
+        <v>0.09088669002324679</v>
       </c>
       <c r="F13">
-        <v>11.03787663043317</v>
+        <v>11.03787663043323</v>
       </c>
       <c r="G13">
-        <v>0.0007365487680903726</v>
+        <v>0.0007365487680889034</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.484922129706149</v>
+        <v>0.4849221297061206</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.037064793684237</v>
+        <v>6.037064793684578</v>
       </c>
       <c r="C14">
-        <v>1.614332748418349</v>
+        <v>1.614332748418803</v>
       </c>
       <c r="D14">
-        <v>0.05222071275145623</v>
+        <v>0.05222071275147044</v>
       </c>
       <c r="E14">
-        <v>0.08915824143405615</v>
+        <v>0.0891582414340597</v>
       </c>
       <c r="F14">
-        <v>10.82778483984373</v>
+        <v>10.82778483984362</v>
       </c>
       <c r="G14">
-        <v>0.0007393744960038322</v>
+        <v>0.0007393744963467165</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.95720853326327</v>
+        <v>5.957208533263383</v>
       </c>
       <c r="C15">
-        <v>1.592224680830498</v>
+        <v>1.592224680830896</v>
       </c>
       <c r="D15">
-        <v>0.0514086152989961</v>
+        <v>0.05140861529923058</v>
       </c>
       <c r="E15">
-        <v>0.08810967879762543</v>
+        <v>0.08810967879758991</v>
       </c>
       <c r="F15">
-        <v>10.70018729268941</v>
+        <v>10.70018729268924</v>
       </c>
       <c r="G15">
-        <v>0.0007411014852578557</v>
+        <v>0.0007411014852645097</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4695981195129093</v>
+        <v>0.4695981195130088</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.508520981684001</v>
+        <v>5.50852098168383</v>
       </c>
       <c r="C16">
         <v>1.468216063059572</v>
       </c>
       <c r="D16">
-        <v>0.04689410477740097</v>
+        <v>0.04689410477787703</v>
       </c>
       <c r="E16">
-        <v>0.08224528121549923</v>
+        <v>0.08224528121541042</v>
       </c>
       <c r="F16">
-        <v>9.984407813678473</v>
+        <v>9.984407813678388</v>
       </c>
       <c r="G16">
-        <v>0.0007509496615668602</v>
+        <v>0.0007509496616923419</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.437130075298839</v>
+        <v>0.4371300752986826</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.240491462601256</v>
+        <v>5.240491462601085</v>
       </c>
       <c r="C17">
-        <v>1.394303485948114</v>
+        <v>1.394303485948456</v>
       </c>
       <c r="D17">
-        <v>0.04423645554101796</v>
+        <v>0.0442364555411956</v>
       </c>
       <c r="E17">
-        <v>0.07876533971025879</v>
+        <v>0.07876533971024102</v>
       </c>
       <c r="F17">
-        <v>9.557795263728252</v>
+        <v>9.557795263728337</v>
       </c>
       <c r="G17">
-        <v>0.0007569584597555627</v>
+        <v>0.0007569584598579252</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4177882516645894</v>
+        <v>0.41778825166449</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.088710880755514</v>
+        <v>5.088710880755059</v>
       </c>
       <c r="C18">
-        <v>1.352501393199873</v>
+        <v>1.352501393199816</v>
       </c>
       <c r="D18">
-        <v>0.0427444390032008</v>
+        <v>0.04274443900360581</v>
       </c>
       <c r="E18">
-        <v>0.07680292013193935</v>
+        <v>0.07680292013203882</v>
       </c>
       <c r="F18">
-        <v>9.316546310630883</v>
+        <v>9.31654631063094</v>
       </c>
       <c r="G18">
-        <v>0.0007604063732424134</v>
+        <v>0.0007604063733446242</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4068539367830084</v>
+        <v>0.4068539367831505</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>5.03770602630982</v>
       </c>
       <c r="C19">
-        <v>1.338462593438749</v>
+        <v>1.33846259343909</v>
       </c>
       <c r="D19">
-        <v>0.04224515939781526</v>
+        <v>0.04224515939750972</v>
       </c>
       <c r="E19">
-        <v>0.07614484515372055</v>
+        <v>0.07614484515375963</v>
       </c>
       <c r="F19">
-        <v>9.235531762993674</v>
+        <v>9.235531762993901</v>
       </c>
       <c r="G19">
-        <v>0.0007615727077271387</v>
+        <v>0.000761572707489222</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4031826464716488</v>
+        <v>0.4031826464713362</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.268771258255015</v>
+        <v>5.268771258255128</v>
       </c>
       <c r="C20">
-        <v>1.402096289715928</v>
+        <v>1.402096289716383</v>
       </c>
       <c r="D20">
-        <v>0.04451548406240846</v>
+        <v>0.04451548406218109</v>
       </c>
       <c r="E20">
-        <v>0.07913164665671601</v>
+        <v>0.07913164665659878</v>
       </c>
       <c r="F20">
-        <v>9.602771871590306</v>
+        <v>9.602771871590392</v>
       </c>
       <c r="G20">
-        <v>0.0007563197420352145</v>
+        <v>0.0007563197420338285</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.419827046693058</v>
+        <v>0.4198270466931433</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.075527469935309</v>
+        <v>6.075527469935423</v>
       </c>
       <c r="C21">
-        <v>1.624985169664114</v>
+        <v>1.624985169664626</v>
       </c>
       <c r="D21">
-        <v>0.05261278868731978</v>
+        <v>0.0526127886869503</v>
       </c>
       <c r="E21">
-        <v>0.0896637825179134</v>
+        <v>0.08966378251794183</v>
       </c>
       <c r="F21">
-        <v>10.88926358633859</v>
+        <v>10.88926358633853</v>
       </c>
       <c r="G21">
-        <v>0.0007385453403207048</v>
+        <v>0.0007385453404408005</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4781777460870984</v>
+        <v>0.4781777460869847</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.630310504269914</v>
+        <v>6.630310504270028</v>
       </c>
       <c r="C22">
-        <v>1.778937140835183</v>
+        <v>1.778937140835637</v>
       </c>
       <c r="D22">
-        <v>0.05833543466583535</v>
+        <v>0.05833543466579982</v>
       </c>
       <c r="E22">
-        <v>0.09699055586602867</v>
+        <v>0.09699055586607486</v>
       </c>
       <c r="F22">
-        <v>11.77754066640699</v>
+        <v>11.77754066640705</v>
       </c>
       <c r="G22">
-        <v>0.0007267670802386725</v>
+        <v>0.0007267670803533127</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5185000654125389</v>
+        <v>0.5185000654124394</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.331343433539132</v>
+        <v>6.331343433538848</v>
       </c>
       <c r="C23">
-        <v>1.695903132751994</v>
+        <v>1.695903132750573</v>
       </c>
       <c r="D23">
-        <v>0.05523589189799338</v>
+        <v>0.05523589189832023</v>
       </c>
       <c r="E23">
-        <v>0.09303426361000078</v>
+        <v>0.09303426360995104</v>
       </c>
       <c r="F23">
-        <v>11.29851019605661</v>
+        <v>11.29851019605695</v>
       </c>
       <c r="G23">
-        <v>0.0007330730812641258</v>
+        <v>0.0007330730811327486</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4967519736591299</v>
+        <v>0.496751973659201</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.255978821668691</v>
+        <v>5.255978821668236</v>
       </c>
       <c r="C24">
-        <v>1.398571029896175</v>
+        <v>1.398571029894811</v>
       </c>
       <c r="D24">
-        <v>0.04438922450327709</v>
+        <v>0.04438922450309946</v>
       </c>
       <c r="E24">
-        <v>0.07896592112273026</v>
+        <v>0.07896592112279777</v>
       </c>
       <c r="F24">
         <v>9.582425546452868</v>
       </c>
       <c r="G24">
-        <v>0.0007566085259585003</v>
+        <v>0.000756608526184407</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4189047344672616</v>
+        <v>0.418904734467219</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>4.185062802181108</v>
       </c>
       <c r="C25">
-        <v>1.104385963401683</v>
+        <v>1.104385963401228</v>
       </c>
       <c r="D25">
-        <v>0.03405502384266157</v>
+        <v>0.03405502384234183</v>
       </c>
       <c r="E25">
-        <v>0.06525697957497556</v>
+        <v>0.06525697957501464</v>
       </c>
       <c r="F25">
-        <v>7.88558982296675</v>
+        <v>7.885589822966608</v>
       </c>
       <c r="G25">
-        <v>0.0007817117039674581</v>
+        <v>0.0007817117039821877</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3420592643256555</v>
+        <v>0.3420592643255986</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.448302998296811</v>
+        <v>3.440621371965278</v>
       </c>
       <c r="C2">
-        <v>0.9029792202541103</v>
+        <v>1.158696943792336</v>
       </c>
       <c r="D2">
-        <v>0.02721432060401696</v>
+        <v>0.1556222775018199</v>
       </c>
       <c r="E2">
-        <v>0.05605249652801803</v>
+        <v>0.1587807601337801</v>
       </c>
       <c r="F2">
-        <v>6.726400190158387</v>
+        <v>1.084009482729485</v>
       </c>
       <c r="G2">
-        <v>0.0008003039932528319</v>
+        <v>0.7479812297438428</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001432084995069971</v>
       </c>
       <c r="J2">
-        <v>0.2896736897724992</v>
+        <v>0.4997722339929567</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3203447847689702</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1974703325869243</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,43 +468,49 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.971933580995824</v>
+        <v>2.992236944849878</v>
       </c>
       <c r="C3">
-        <v>0.7731251663113028</v>
+        <v>1.00553657075568</v>
       </c>
       <c r="D3">
-        <v>0.02290652906184221</v>
+        <v>0.1380934763294448</v>
       </c>
       <c r="E3">
-        <v>0.05023021538717032</v>
+        <v>0.1413246693210617</v>
       </c>
       <c r="F3">
-        <v>5.980981341814839</v>
+        <v>1.009638237471933</v>
       </c>
       <c r="G3">
-        <v>0.0008131060406644938</v>
+        <v>0.693511422960384</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0005156635806988774</v>
       </c>
       <c r="J3">
-        <v>0.256059100875774</v>
+        <v>0.4826975167108429</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3236533394359782</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1760770724275318</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -509,43 +521,49 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.688273371566879</v>
+        <v>2.717378515281553</v>
       </c>
       <c r="C4">
-        <v>0.6959207877529252</v>
+        <v>0.9125279847697243</v>
       </c>
       <c r="D4">
-        <v>0.02038357765563958</v>
+        <v>0.1275050271366212</v>
       </c>
       <c r="E4">
-        <v>0.04682356227590745</v>
+        <v>0.130807157527169</v>
       </c>
       <c r="F4">
-        <v>5.538808353936702</v>
+        <v>0.96585334106841</v>
       </c>
       <c r="G4">
-        <v>0.0008211020246504814</v>
+        <v>0.6615510152837345</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0004385149947037092</v>
       </c>
       <c r="J4">
-        <v>0.2361562406331217</v>
+        <v>0.4730862477630779</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3263937930386867</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1632234633028418</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -556,43 +574,49 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.574581973521276</v>
+        <v>2.605415537876524</v>
       </c>
       <c r="C5">
-        <v>0.6649989549758857</v>
+        <v>0.8761459542224088</v>
       </c>
       <c r="D5">
-        <v>0.01938103737332497</v>
+        <v>0.1234268109058121</v>
       </c>
       <c r="E5">
-        <v>0.04547292519751167</v>
+        <v>0.1266242883971458</v>
       </c>
       <c r="F5">
-        <v>5.36196660466544</v>
+        <v>0.9470630113993082</v>
       </c>
       <c r="G5">
-        <v>0.0008243991525579186</v>
+        <v>0.6475268349963841</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0005870878866298668</v>
       </c>
       <c r="J5">
-        <v>0.2282058723526319</v>
+        <v>0.4686846327506657</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3269585290289498</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1580121003630168</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -603,43 +627,49 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.555809928391511</v>
+        <v>2.586794758386134</v>
       </c>
       <c r="C6">
-        <v>0.6598944268786227</v>
+        <v>0.8716993127019919</v>
       </c>
       <c r="D6">
-        <v>0.01921597419477195</v>
+        <v>0.1229921664179301</v>
       </c>
       <c r="E6">
-        <v>0.04525079754974826</v>
+        <v>0.1260021285320789</v>
       </c>
       <c r="F6">
-        <v>5.33278936038883</v>
+        <v>0.942278456904674</v>
       </c>
       <c r="G6">
-        <v>0.0008249491007590526</v>
+        <v>0.6435798822419372</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0007073583751173729</v>
       </c>
       <c r="J6">
-        <v>0.2268947211476728</v>
+        <v>0.4671232055292762</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.326185386509497</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1571042725732426</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -650,43 +680,49 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.68673277936432</v>
+        <v>2.715775176487682</v>
       </c>
       <c r="C7">
-        <v>0.6955016980899416</v>
+        <v>0.9163656529306934</v>
       </c>
       <c r="D7">
-        <v>0.020369959747498</v>
+        <v>0.1281063329601011</v>
       </c>
       <c r="E7">
-        <v>0.0468052006536368</v>
+        <v>0.1309410975339951</v>
       </c>
       <c r="F7">
-        <v>5.536410536305681</v>
+        <v>0.9609787317702967</v>
       </c>
       <c r="G7">
-        <v>0.0008211463285372234</v>
+        <v>0.6568810357088495</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0006653757957595374</v>
       </c>
       <c r="J7">
-        <v>0.2360484013893966</v>
+        <v>0.4707244354574271</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3240065186536079</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1630263979867692</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -697,43 +733,49 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.282012790167698</v>
+        <v>3.285754802301199</v>
       </c>
       <c r="C8">
-        <v>0.8576194665841115</v>
+        <v>1.111433728851978</v>
       </c>
       <c r="D8">
-        <v>0.02570037406264447</v>
+        <v>0.1504128244610285</v>
       </c>
       <c r="E8">
-        <v>0.05400702242320676</v>
+        <v>0.1529702071891492</v>
       </c>
       <c r="F8">
-        <v>6.465803389734788</v>
+        <v>1.05182486955232</v>
       </c>
       <c r="G8">
-        <v>0.0008046929907470357</v>
+        <v>0.7229273751076875</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001267833451116473</v>
       </c>
       <c r="J8">
-        <v>0.2779144207484308</v>
+        <v>0.4906500190727172</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3181755196345648</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1898620812883181</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -744,43 +786,49 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.536332698958347</v>
+        <v>4.409424036906103</v>
       </c>
       <c r="C9">
-        <v>1.200684366356711</v>
+        <v>1.495800589555074</v>
       </c>
       <c r="D9">
-        <v>0.03739350218128834</v>
+        <v>0.1945106068719298</v>
       </c>
       <c r="E9">
-        <v>0.06971534763782472</v>
+        <v>0.1976285764200156</v>
       </c>
       <c r="F9">
-        <v>8.440707384059323</v>
+        <v>1.255040517763831</v>
       </c>
       <c r="G9">
-        <v>0.0007732591543417375</v>
+        <v>0.8738738902780909</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.006414594926778427</v>
       </c>
       <c r="J9">
-        <v>0.3671815133470346</v>
+        <v>0.5414955574715208</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3171886343162029</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2452748017363575</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -791,43 +839,49 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.539446936682964</v>
+        <v>5.241761913065204</v>
       </c>
       <c r="C10">
-        <v>1.47675215390683</v>
+        <v>1.788567750861716</v>
       </c>
       <c r="D10">
-        <v>0.04720263424910343</v>
+        <v>0.2284098337733838</v>
       </c>
       <c r="E10">
-        <v>0.08264795761272126</v>
+        <v>0.2319499767576474</v>
       </c>
       <c r="F10">
-        <v>10.03367899497417</v>
+        <v>1.415079689201619</v>
       </c>
       <c r="G10">
-        <v>0.0007502626375769946</v>
+        <v>0.9931268146493721</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01355197307724865</v>
       </c>
       <c r="J10">
-        <v>0.4393644174029987</v>
+        <v>0.5834862460717005</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3199100338712526</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2879685943757124</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -838,43 +892,49 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.021757004846904</v>
+        <v>5.622464991665652</v>
       </c>
       <c r="C11">
-        <v>1.610093925693718</v>
+        <v>1.931448097675457</v>
       </c>
       <c r="D11">
-        <v>0.05206483841547538</v>
+        <v>0.2452425665155005</v>
       </c>
       <c r="E11">
-        <v>0.0889571312120232</v>
+        <v>0.2482632839272014</v>
       </c>
       <c r="F11">
-        <v>10.80332075185044</v>
+        <v>1.483777359289704</v>
       </c>
       <c r="G11">
-        <v>0.0007397049686075572</v>
+        <v>1.042877837296942</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01795817953941281</v>
       </c>
       <c r="J11">
-        <v>0.4742778080897381</v>
+        <v>0.6003580626924645</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3185274506046127</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3077374271354216</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -885,43 +945,49 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.209020243982025</v>
+        <v>5.76717026520646</v>
       </c>
       <c r="C12">
-        <v>1.661977444805359</v>
+        <v>1.982043802775991</v>
       </c>
       <c r="D12">
-        <v>0.05397826453995691</v>
+        <v>0.2510835574801717</v>
       </c>
       <c r="E12">
-        <v>0.09142086229214641</v>
+        <v>0.2543363435166839</v>
       </c>
       <c r="F12">
-        <v>11.10274585811283</v>
+        <v>1.514413650133989</v>
       </c>
       <c r="G12">
-        <v>0.0007356806587959024</v>
+        <v>1.066116061802006</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01960752785655462</v>
       </c>
       <c r="J12">
-        <v>0.4878662628900372</v>
+        <v>0.608988788930219</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3202382367897414</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3154306327009238</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -932,43 +998,49 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.16846777707724</v>
+        <v>5.736013862238167</v>
       </c>
       <c r="C13">
-        <v>1.650736491445514</v>
+        <v>1.970341708011688</v>
       </c>
       <c r="D13">
-        <v>0.05356268899122796</v>
+        <v>0.2497055710182536</v>
       </c>
       <c r="E13">
-        <v>0.09088669002324679</v>
+        <v>0.2529918696167996</v>
       </c>
       <c r="F13">
-        <v>11.03787663043323</v>
+        <v>1.508604748803563</v>
       </c>
       <c r="G13">
-        <v>0.0007365487680889034</v>
+        <v>1.061879572402816</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01921194330380782</v>
       </c>
       <c r="J13">
-        <v>0.4849221297061206</v>
+        <v>0.607520229271941</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3202699381480656</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3137927529346456</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -979,43 +1051,49 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.037064793684578</v>
+        <v>5.634373033933343</v>
       </c>
       <c r="C14">
-        <v>1.614332748418803</v>
+        <v>1.935268301767735</v>
       </c>
       <c r="D14">
-        <v>0.05222071275147044</v>
+        <v>0.2456720850633616</v>
       </c>
       <c r="E14">
-        <v>0.0891582414340597</v>
+        <v>0.2487473351614895</v>
       </c>
       <c r="F14">
-        <v>10.82778483984362</v>
+        <v>1.486632289330402</v>
       </c>
       <c r="G14">
-        <v>0.0007393744963467165</v>
+        <v>1.045115335010422</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01807619810155625</v>
       </c>
       <c r="J14">
-        <v>0.4753879210278598</v>
+        <v>0.6012335696485707</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3188379260615832</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3083783100838957</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1026,43 +1104,49 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.957208533263383</v>
+        <v>5.5721172029277</v>
       </c>
       <c r="C15">
-        <v>1.592224680830896</v>
+        <v>1.915385695925238</v>
       </c>
       <c r="D15">
-        <v>0.05140861529923058</v>
+        <v>0.2434398292104589</v>
       </c>
       <c r="E15">
-        <v>0.08810967879758991</v>
+        <v>0.2462220303972913</v>
       </c>
       <c r="F15">
-        <v>10.70018729268924</v>
+        <v>1.471646017433173</v>
       </c>
       <c r="G15">
-        <v>0.0007411014852645097</v>
+        <v>1.033356488774146</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01747087040197748</v>
       </c>
       <c r="J15">
-        <v>0.4695981195130088</v>
+        <v>0.5966256659505547</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3171821782571911</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3050284656928568</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1073,43 +1157,49 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.50852098168383</v>
+        <v>5.216499048240735</v>
       </c>
       <c r="C16">
-        <v>1.468216063059572</v>
+        <v>1.792287694716379</v>
       </c>
       <c r="D16">
-        <v>0.04689410477787703</v>
+        <v>0.2292634915561962</v>
       </c>
       <c r="E16">
-        <v>0.08224528121541042</v>
+        <v>0.2314498320866534</v>
       </c>
       <c r="F16">
-        <v>9.984407813678388</v>
+        <v>1.397149875861558</v>
       </c>
       <c r="G16">
-        <v>0.0007509496616923419</v>
+        <v>0.9768397342594284</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01384206795930254</v>
       </c>
       <c r="J16">
-        <v>0.4371300752986826</v>
+        <v>0.575752848528893</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3132186541846096</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2863054683838584</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1120,43 +1210,49 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.240491462601085</v>
+        <v>4.998992074873115</v>
       </c>
       <c r="C17">
-        <v>1.394303485948456</v>
+        <v>1.717341436042091</v>
       </c>
       <c r="D17">
-        <v>0.0442364555411956</v>
+        <v>0.220641126824674</v>
       </c>
       <c r="E17">
-        <v>0.07876533971024102</v>
+        <v>0.222488772317412</v>
       </c>
       <c r="F17">
-        <v>9.557795263728337</v>
+        <v>1.352459686992162</v>
       </c>
       <c r="G17">
-        <v>0.0007569584598579252</v>
+        <v>0.9430112883339206</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01185640297731005</v>
       </c>
       <c r="J17">
-        <v>0.41778825166449</v>
+        <v>0.5633869203452235</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3111412602939048</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2749737282865965</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1167,43 +1263,49 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.088710880755059</v>
+        <v>4.874229138133387</v>
       </c>
       <c r="C18">
-        <v>1.352501393199816</v>
+        <v>1.670493205512287</v>
       </c>
       <c r="D18">
-        <v>0.04274443900360581</v>
+        <v>0.2151177253895042</v>
       </c>
       <c r="E18">
-        <v>0.07680292013203882</v>
+        <v>0.2172006558883837</v>
       </c>
       <c r="F18">
-        <v>9.31654631063094</v>
+        <v>1.331183369270832</v>
       </c>
       <c r="G18">
-        <v>0.0007604063733446242</v>
+        <v>0.9277935246518609</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0105866846627567</v>
       </c>
       <c r="J18">
-        <v>0.4068539367831505</v>
+        <v>0.5584381754867707</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3121192429015949</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2686246449435146</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1214,43 +1316,49 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.03770602630982</v>
+        <v>4.831925106241727</v>
       </c>
       <c r="C19">
-        <v>1.33846259343909</v>
+        <v>1.657698602723144</v>
       </c>
       <c r="D19">
-        <v>0.04224515939750972</v>
+        <v>0.213706803325465</v>
       </c>
       <c r="E19">
-        <v>0.07614484515375963</v>
+        <v>0.2155462973575553</v>
       </c>
       <c r="F19">
-        <v>9.235531762993901</v>
+        <v>1.320891531290243</v>
       </c>
       <c r="G19">
-        <v>0.000761572707489222</v>
+        <v>0.9196429399446089</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01033008361463761</v>
       </c>
       <c r="J19">
-        <v>0.4031826464713362</v>
+        <v>0.555236548691866</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3108893027931252</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2663946926481628</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1261,43 +1369,49 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.268771258255128</v>
+        <v>5.022133079632226</v>
       </c>
       <c r="C20">
-        <v>1.402096289716383</v>
+        <v>1.724989770497075</v>
       </c>
       <c r="D20">
-        <v>0.04451548406218109</v>
+        <v>0.2215099378890812</v>
       </c>
       <c r="E20">
-        <v>0.07913164665659878</v>
+        <v>0.2234257583182782</v>
       </c>
       <c r="F20">
-        <v>9.602771871590392</v>
+        <v>1.357500401431579</v>
       </c>
       <c r="G20">
-        <v>0.0007563197420338285</v>
+        <v>0.9468916912416887</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01204228917677508</v>
       </c>
       <c r="J20">
-        <v>0.4198270466931433</v>
+        <v>0.5648450589944929</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3115100724005444</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2761835084533999</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1308,43 +1422,49 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.075527469935423</v>
+        <v>5.664060615061203</v>
       </c>
       <c r="C21">
-        <v>1.624985169664626</v>
+        <v>1.949977484467922</v>
       </c>
       <c r="D21">
-        <v>0.0526127886869503</v>
+        <v>0.2475160840333785</v>
       </c>
       <c r="E21">
-        <v>0.08966378251794183</v>
+        <v>0.2501809992970934</v>
       </c>
       <c r="F21">
-        <v>10.88926358633853</v>
+        <v>1.488499350559792</v>
       </c>
       <c r="G21">
-        <v>0.0007385453404408005</v>
+        <v>1.045599204433373</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01860917618882318</v>
       </c>
       <c r="J21">
-        <v>0.4781777460869847</v>
+        <v>0.6008233498271096</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3169634169694575</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3098356384823546</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1355,43 +1475,49 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.630310504270028</v>
+        <v>6.086237220242538</v>
       </c>
       <c r="C22">
-        <v>1.778937140835637</v>
+        <v>2.093471756396923</v>
       </c>
       <c r="D22">
-        <v>0.05833543466579982</v>
+        <v>0.2639361255096588</v>
       </c>
       <c r="E22">
-        <v>0.09699055586607486</v>
+        <v>0.267787344708573</v>
       </c>
       <c r="F22">
-        <v>11.77754066640705</v>
+        <v>1.583497858862984</v>
       </c>
       <c r="G22">
-        <v>0.0007267670803533127</v>
+        <v>1.118724529739495</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02348422093471392</v>
       </c>
       <c r="J22">
-        <v>0.5185000654124394</v>
+        <v>0.6287380744852271</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.32467519692851</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.332545051383704</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1402,43 +1528,49 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.331343433538848</v>
+        <v>5.860854263752401</v>
       </c>
       <c r="C23">
-        <v>1.695903132750573</v>
+        <v>2.011354513576521</v>
       </c>
       <c r="D23">
-        <v>0.05523589189832023</v>
+        <v>0.2543506337322157</v>
       </c>
       <c r="E23">
-        <v>0.09303426360995104</v>
+        <v>0.258127734363768</v>
       </c>
       <c r="F23">
-        <v>11.29851019605695</v>
+        <v>1.537960545803458</v>
       </c>
       <c r="G23">
-        <v>0.0007330730811327486</v>
+        <v>1.084746132359186</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0205738433475684</v>
       </c>
       <c r="J23">
-        <v>0.496751973659201</v>
+        <v>0.6164039316384731</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3232041693582204</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3205278787620358</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1449,43 +1581,49 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.255978821668236</v>
+        <v>5.011940425794535</v>
       </c>
       <c r="C24">
-        <v>1.398571029894811</v>
+        <v>1.71320234135527</v>
       </c>
       <c r="D24">
-        <v>0.04438922450309946</v>
+        <v>0.219869308195527</v>
       </c>
       <c r="E24">
-        <v>0.07896592112279777</v>
+        <v>0.2226446097780155</v>
       </c>
       <c r="F24">
-        <v>9.582425546452868</v>
+        <v>1.363865207587196</v>
       </c>
       <c r="G24">
-        <v>0.000756608526184407</v>
+        <v>0.9535101079246004</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01155418537553832</v>
       </c>
       <c r="J24">
-        <v>0.418904734467219</v>
+        <v>0.5684483079180467</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3156934612756075</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2758812792533121</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1496,43 +1634,49 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.185062802181108</v>
+        <v>4.104267904329561</v>
       </c>
       <c r="C25">
-        <v>1.104385963401228</v>
+        <v>1.39856192844735</v>
       </c>
       <c r="D25">
-        <v>0.03405502384234183</v>
+        <v>0.1835959200764989</v>
       </c>
       <c r="E25">
-        <v>0.06525697957501464</v>
+        <v>0.1856695199995073</v>
       </c>
       <c r="F25">
-        <v>7.885589822966608</v>
+        <v>1.189603703770885</v>
       </c>
       <c r="G25">
-        <v>0.0007817117039821877</v>
+        <v>0.8232335031409974</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.00485135652471147</v>
       </c>
       <c r="J25">
-        <v>0.3420592643255986</v>
+        <v>0.5226611014706037</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3124401351525883</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2297276934939703</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.440621371965278</v>
+        <v>3.443113723527404</v>
       </c>
       <c r="C2">
-        <v>1.158696943792336</v>
+        <v>1.241303796361535</v>
       </c>
       <c r="D2">
-        <v>0.1556222775018199</v>
+        <v>0.1692140505122808</v>
       </c>
       <c r="E2">
-        <v>0.1587807601337801</v>
+        <v>0.1626782740971322</v>
       </c>
       <c r="F2">
-        <v>1.084009482729485</v>
+        <v>0.9921462817764137</v>
       </c>
       <c r="G2">
-        <v>0.7479812297438428</v>
+        <v>0.6382014838798113</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001432084995069971</v>
+        <v>0.001679330596130235</v>
       </c>
       <c r="J2">
-        <v>0.4997722339929567</v>
+        <v>0.4970072758950863</v>
       </c>
       <c r="K2">
-        <v>0.3203447847689702</v>
+        <v>0.2704835142350852</v>
       </c>
       <c r="L2">
-        <v>0.1974703325869243</v>
+        <v>0.1524800126125108</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.06298355310089399</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1949345715244917</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -474,49 +480,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.992236944849878</v>
+        <v>2.997039775312203</v>
       </c>
       <c r="C3">
-        <v>1.00553657075568</v>
+        <v>1.071139791610335</v>
       </c>
       <c r="D3">
-        <v>0.1380934763294448</v>
+        <v>0.149303393030749</v>
       </c>
       <c r="E3">
-        <v>0.1413246693210617</v>
+        <v>0.1445857930321992</v>
       </c>
       <c r="F3">
-        <v>1.009638237471933</v>
+        <v>0.931867290591569</v>
       </c>
       <c r="G3">
-        <v>0.693511422960384</v>
+        <v>0.5983152261462266</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0005156635806988774</v>
+        <v>0.0007398677354086836</v>
       </c>
       <c r="J3">
-        <v>0.4826975167108429</v>
+        <v>0.482016529004909</v>
       </c>
       <c r="K3">
-        <v>0.3236533394359782</v>
+        <v>0.2785903998596559</v>
       </c>
       <c r="L3">
-        <v>0.1760770724275318</v>
+        <v>0.1590615693472053</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06278294914368665</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1740586300420333</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,49 +539,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.717378515281553</v>
+        <v>2.723205638837499</v>
       </c>
       <c r="C4">
-        <v>0.9125279847697243</v>
+        <v>0.9678880572176922</v>
       </c>
       <c r="D4">
-        <v>0.1275050271366212</v>
+        <v>0.1372960934297396</v>
       </c>
       <c r="E4">
-        <v>0.130807157527169</v>
+        <v>0.1336814347533419</v>
       </c>
       <c r="F4">
-        <v>0.96585334106841</v>
+        <v>0.8962304262639833</v>
       </c>
       <c r="G4">
-        <v>0.6615510152837345</v>
+        <v>0.5751706114209014</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0004385149947037092</v>
+        <v>0.0005285574940723237</v>
       </c>
       <c r="J4">
-        <v>0.4730862477630779</v>
+        <v>0.4730852133159829</v>
       </c>
       <c r="K4">
-        <v>0.3263937930386867</v>
+        <v>0.2840621975340021</v>
       </c>
       <c r="L4">
-        <v>0.1632234633028418</v>
+        <v>0.163198536464602</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06347896297643274</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1614942917002793</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -580,49 +598,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.605415537876524</v>
+        <v>2.611572187229456</v>
       </c>
       <c r="C5">
-        <v>0.8761459542224088</v>
+        <v>0.927319766398341</v>
       </c>
       <c r="D5">
-        <v>0.1234268109058121</v>
+        <v>0.1326402160403006</v>
       </c>
       <c r="E5">
-        <v>0.1266242883971458</v>
+        <v>0.1293378613545499</v>
       </c>
       <c r="F5">
-        <v>0.9470630113993082</v>
+        <v>0.8808103991621294</v>
       </c>
       <c r="G5">
-        <v>0.6475268349963841</v>
+        <v>0.5648974678269667</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0005870878866298668</v>
+        <v>0.0006065359592639652</v>
       </c>
       <c r="J5">
-        <v>0.4686846327506657</v>
+        <v>0.4688940832462407</v>
       </c>
       <c r="K5">
-        <v>0.3269585290289498</v>
+        <v>0.2858255733860204</v>
       </c>
       <c r="L5">
-        <v>0.1580121003630168</v>
+        <v>0.1646201868542256</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06381046748628982</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.156397844195773</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -633,49 +657,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.586794758386134</v>
+        <v>2.593001223975307</v>
       </c>
       <c r="C6">
-        <v>0.8716993127019919</v>
+        <v>0.9221038554157133</v>
       </c>
       <c r="D6">
-        <v>0.1229921664179301</v>
+        <v>0.132097677252176</v>
       </c>
       <c r="E6">
-        <v>0.1260021285320789</v>
+        <v>0.1286838189533057</v>
       </c>
       <c r="F6">
-        <v>0.942278456904674</v>
+        <v>0.876784992997429</v>
       </c>
       <c r="G6">
-        <v>0.6435798822419372</v>
+        <v>0.5618057911705989</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0007073583751173729</v>
+        <v>0.0007295329255327943</v>
       </c>
       <c r="J6">
-        <v>0.4671232055292762</v>
+        <v>0.4674520347354161</v>
       </c>
       <c r="K6">
-        <v>0.326185386509497</v>
+        <v>0.2854155070636466</v>
       </c>
       <c r="L6">
-        <v>0.1571042725732426</v>
+        <v>0.1645077553052658</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06369222844239353</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1555129092050294</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -686,49 +716,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.715775176487682</v>
+        <v>2.721555792096922</v>
       </c>
       <c r="C7">
-        <v>0.9163656529306934</v>
+        <v>0.9702447425262619</v>
       </c>
       <c r="D7">
-        <v>0.1281063329601011</v>
+        <v>0.1382346714429303</v>
       </c>
       <c r="E7">
-        <v>0.1309410975339951</v>
+        <v>0.1339053974623532</v>
       </c>
       <c r="F7">
-        <v>0.9609787317702967</v>
+        <v>0.8895443328200514</v>
       </c>
       <c r="G7">
-        <v>0.6568810357088495</v>
+        <v>0.5740668064775178</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0006653757957595374</v>
+        <v>0.0007960638805073472</v>
       </c>
       <c r="J7">
-        <v>0.4707244354574271</v>
+        <v>0.4643289023589574</v>
       </c>
       <c r="K7">
-        <v>0.3240065186536079</v>
+        <v>0.2813427958786932</v>
       </c>
       <c r="L7">
-        <v>0.1630263979867692</v>
+        <v>0.1618928769634778</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06273746291530813</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1612397379153165</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -739,49 +775,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.285754802301199</v>
+        <v>3.288942838342052</v>
       </c>
       <c r="C8">
-        <v>1.111433728851978</v>
+        <v>1.183762615678404</v>
       </c>
       <c r="D8">
-        <v>0.1504128244610285</v>
+        <v>0.1644047145856717</v>
       </c>
       <c r="E8">
-        <v>0.1529702071891492</v>
+        <v>0.156984035770229</v>
       </c>
       <c r="F8">
-        <v>1.05182486955232</v>
+        <v>0.9576736074635335</v>
       </c>
       <c r="G8">
-        <v>0.7229273751076875</v>
+        <v>0.6287154487935283</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.001267833451116473</v>
+        <v>0.001577515181721445</v>
       </c>
       <c r="J8">
-        <v>0.4906500190727172</v>
+        <v>0.4672727695123626</v>
       </c>
       <c r="K8">
-        <v>0.3181755196345648</v>
+        <v>0.2680399642830835</v>
       </c>
       <c r="L8">
-        <v>0.1898620812883181</v>
+        <v>0.1524433657095763</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06114827062827288</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1872891874807294</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -792,49 +834,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.409424036906103</v>
+        <v>4.404012093143876</v>
       </c>
       <c r="C9">
-        <v>1.495800589555074</v>
+        <v>1.61055001482282</v>
       </c>
       <c r="D9">
-        <v>0.1945106068719298</v>
+        <v>0.2151056976706514</v>
       </c>
       <c r="E9">
-        <v>0.1976285764200156</v>
+        <v>0.203354519395532</v>
       </c>
       <c r="F9">
-        <v>1.255040517763831</v>
+        <v>1.119633722081645</v>
       </c>
       <c r="G9">
-        <v>0.8738738902780909</v>
+        <v>0.7444322383286988</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.006414594926778427</v>
+        <v>0.005931199155810418</v>
       </c>
       <c r="J9">
-        <v>0.5414955574715208</v>
+        <v>0.5028025270077165</v>
       </c>
       <c r="K9">
-        <v>0.3171886343162029</v>
+        <v>0.2525677559750008</v>
       </c>
       <c r="L9">
-        <v>0.2452748017363575</v>
+        <v>0.1376008498582877</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.06671500826205801</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2411299772527968</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -845,49 +893,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.241761913065204</v>
+        <v>5.226482548184777</v>
       </c>
       <c r="C10">
-        <v>1.788567750861716</v>
+        <v>1.927568448119644</v>
       </c>
       <c r="D10">
-        <v>0.2284098337733838</v>
+        <v>0.2563825327559357</v>
       </c>
       <c r="E10">
-        <v>0.2319499767576474</v>
+        <v>0.2395473256426683</v>
       </c>
       <c r="F10">
-        <v>1.415079689201619</v>
+        <v>1.232193213865344</v>
       </c>
       <c r="G10">
-        <v>0.9931268146493721</v>
+        <v>0.8546950280968559</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01355197307724865</v>
+        <v>0.01161541270936173</v>
       </c>
       <c r="J10">
-        <v>0.5834862460717005</v>
+        <v>0.492886611403847</v>
       </c>
       <c r="K10">
-        <v>0.3199100338712526</v>
+        <v>0.2391986061713602</v>
       </c>
       <c r="L10">
-        <v>0.2879685943757124</v>
+        <v>0.1253969860029152</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.0733177436260064</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2820156791496089</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,49 +952,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.622464991665652</v>
+        <v>5.600996479348623</v>
       </c>
       <c r="C11">
-        <v>1.931448097675457</v>
+        <v>2.067680781979448</v>
       </c>
       <c r="D11">
-        <v>0.2452425665155005</v>
+        <v>0.2807719068866419</v>
       </c>
       <c r="E11">
-        <v>0.2482632839272014</v>
+        <v>0.2578126745558151</v>
       </c>
       <c r="F11">
-        <v>1.483777359289704</v>
+        <v>1.254718221410059</v>
       </c>
       <c r="G11">
-        <v>1.042877837296942</v>
+        <v>0.9329106652029395</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01795817953941281</v>
+        <v>0.01510190947604872</v>
       </c>
       <c r="J11">
-        <v>0.6003580626924645</v>
+        <v>0.4262036339950015</v>
       </c>
       <c r="K11">
-        <v>0.3185274506046127</v>
+        <v>0.2237776081278327</v>
       </c>
       <c r="L11">
-        <v>0.3077374271354216</v>
+        <v>0.1166317475641137</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.07306395844446456</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.300137647780673</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -951,49 +1011,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.76717026520646</v>
+        <v>5.743079502621185</v>
       </c>
       <c r="C12">
-        <v>1.982043802775991</v>
+        <v>2.115620747678406</v>
       </c>
       <c r="D12">
-        <v>0.2510835574801717</v>
+        <v>0.2900714164211138</v>
       </c>
       <c r="E12">
-        <v>0.2543363435166839</v>
+        <v>0.2647854907877232</v>
       </c>
       <c r="F12">
-        <v>1.514413650133989</v>
+        <v>1.263944356029654</v>
       </c>
       <c r="G12">
-        <v>1.066116061802006</v>
+        <v>0.9707562368609786</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01960752785655462</v>
+        <v>0.01629816031485021</v>
       </c>
       <c r="J12">
-        <v>0.608988788930219</v>
+        <v>0.3972453477232136</v>
       </c>
       <c r="K12">
-        <v>0.3202382367897414</v>
+        <v>0.2186989197399534</v>
       </c>
       <c r="L12">
-        <v>0.3154306327009238</v>
+        <v>0.1136316700131523</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.07331128178687152</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3070810002881785</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1004,49 +1070,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.736013862238167</v>
+        <v>5.712495684119574</v>
       </c>
       <c r="C13">
-        <v>1.970341708011688</v>
+        <v>2.104608348355953</v>
       </c>
       <c r="D13">
-        <v>0.2497055710182536</v>
+        <v>0.2879243792767312</v>
       </c>
       <c r="E13">
-        <v>0.2529918696167996</v>
+        <v>0.2632427477867623</v>
       </c>
       <c r="F13">
-        <v>1.508604748803563</v>
+        <v>1.262756405641881</v>
       </c>
       <c r="G13">
-        <v>1.061879572402816</v>
+        <v>0.9630601660160636</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01921194330380782</v>
+        <v>0.01599229919669032</v>
       </c>
       <c r="J13">
-        <v>0.607520229271941</v>
+        <v>0.4039457251278264</v>
       </c>
       <c r="K13">
-        <v>0.3202699381480656</v>
+        <v>0.2201102645449957</v>
       </c>
       <c r="L13">
-        <v>0.3137927529346456</v>
+        <v>0.1143820107180531</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.07339016168244328</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.3056074433524572</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1057,49 +1129,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.634373033933343</v>
+        <v>5.612692460049175</v>
       </c>
       <c r="C14">
-        <v>1.935268301767735</v>
+        <v>2.071334021125324</v>
       </c>
       <c r="D14">
-        <v>0.2456720850633616</v>
+        <v>0.2814752464553294</v>
       </c>
       <c r="E14">
-        <v>0.2487473351614895</v>
+        <v>0.2583686990208633</v>
       </c>
       <c r="F14">
-        <v>1.486632289330402</v>
+        <v>1.255820939966284</v>
       </c>
       <c r="G14">
-        <v>1.045115335010422</v>
+        <v>0.9362107663165915</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01807619810155625</v>
+        <v>0.01517934693599621</v>
       </c>
       <c r="J14">
-        <v>0.6012335696485707</v>
+        <v>0.4240317413974992</v>
       </c>
       <c r="K14">
-        <v>0.3188379260615832</v>
+        <v>0.2234969337994066</v>
       </c>
       <c r="L14">
-        <v>0.3083783100838957</v>
+        <v>0.11643040448363</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.07314082974880165</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.3007181716150313</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1110,49 +1188,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.5721172029277</v>
+        <v>5.551535083228089</v>
       </c>
       <c r="C15">
-        <v>1.915385695925238</v>
+        <v>2.052249400372943</v>
       </c>
       <c r="D15">
-        <v>0.2434398292104589</v>
+        <v>0.2778341595691813</v>
       </c>
       <c r="E15">
-        <v>0.2462220303972913</v>
+        <v>0.2554728452708304</v>
       </c>
       <c r="F15">
-        <v>1.471646017433173</v>
+        <v>1.249872925094309</v>
       </c>
       <c r="G15">
-        <v>1.033356488774146</v>
+        <v>0.9190937121330904</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01747087040197748</v>
+        <v>0.01478531183960552</v>
       </c>
       <c r="J15">
-        <v>0.5966256659505547</v>
+        <v>0.4351503350456767</v>
       </c>
       <c r="K15">
-        <v>0.3171821782571911</v>
+        <v>0.2249032700187072</v>
       </c>
       <c r="L15">
-        <v>0.3050284656928568</v>
+        <v>0.1174631277624272</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.07271615228201966</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2976794785750059</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1163,49 +1247,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.216499048240735</v>
+        <v>5.201646218337828</v>
       </c>
       <c r="C16">
-        <v>1.792287694716379</v>
+        <v>1.930687191359141</v>
       </c>
       <c r="D16">
-        <v>0.2292634915561962</v>
+        <v>0.2567502229608465</v>
       </c>
       <c r="E16">
-        <v>0.2314498320866534</v>
+        <v>0.2388985769275038</v>
       </c>
       <c r="F16">
-        <v>1.397149875861558</v>
+        <v>1.218912939971219</v>
       </c>
       <c r="G16">
-        <v>0.9768397342594284</v>
+        <v>0.8391355096939037</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01384206795930254</v>
+        <v>0.0121217469116397</v>
       </c>
       <c r="J16">
-        <v>0.575752848528893</v>
+        <v>0.4911547054507963</v>
       </c>
       <c r="K16">
-        <v>0.3132186541846096</v>
+        <v>0.2351057608813143</v>
       </c>
       <c r="L16">
-        <v>0.2863054683838584</v>
+        <v>0.1241713695437525</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.07128822599522522</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2804836628146177</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1216,49 +1306,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.998992074873115</v>
+        <v>4.987216667281245</v>
       </c>
       <c r="C17">
-        <v>1.717341436042091</v>
+        <v>1.853709513155252</v>
       </c>
       <c r="D17">
-        <v>0.220641126824674</v>
+        <v>0.2448365476228815</v>
       </c>
       <c r="E17">
-        <v>0.222488772317412</v>
+        <v>0.2290793470159187</v>
       </c>
       <c r="F17">
-        <v>1.352459686992162</v>
+        <v>1.195262466899834</v>
       </c>
       <c r="G17">
-        <v>0.9430112883339206</v>
+        <v>0.7980296368649391</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01185640297731005</v>
+        <v>0.01063535736041832</v>
       </c>
       <c r="J17">
-        <v>0.5633869203452235</v>
+        <v>0.5140183723092093</v>
       </c>
       <c r="K17">
-        <v>0.3111412602939048</v>
+        <v>0.2400407303087313</v>
       </c>
       <c r="L17">
-        <v>0.2749737282865965</v>
+        <v>0.1278578398008996</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.06999345033963777</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2698974426751732</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1269,49 +1365,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.874229138133387</v>
+        <v>4.864058658984334</v>
       </c>
       <c r="C18">
-        <v>1.670493205512287</v>
+        <v>1.804815972584095</v>
       </c>
       <c r="D18">
-        <v>0.2151177253895042</v>
+        <v>0.2377695932876662</v>
       </c>
       <c r="E18">
-        <v>0.2172006558883837</v>
+        <v>0.223396194005403</v>
       </c>
       <c r="F18">
-        <v>1.331183369270832</v>
+        <v>1.183494135643699</v>
       </c>
       <c r="G18">
-        <v>0.9277935246518609</v>
+        <v>0.7803803435453176</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0105866846627567</v>
+        <v>0.009565562025815488</v>
       </c>
       <c r="J18">
-        <v>0.5584381754867707</v>
+        <v>0.5242338622309859</v>
       </c>
       <c r="K18">
-        <v>0.3121192429015949</v>
+        <v>0.2439336975200419</v>
       </c>
       <c r="L18">
-        <v>0.2686246449435146</v>
+        <v>0.1303718058866039</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.06970779334512045</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2638994789093516</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1322,49 +1424,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.831925106241727</v>
+        <v>4.822285018356581</v>
       </c>
       <c r="C19">
-        <v>1.657698602723144</v>
+        <v>1.791034568749808</v>
       </c>
       <c r="D19">
-        <v>0.213706803325465</v>
+        <v>0.2358710219051545</v>
       </c>
       <c r="E19">
-        <v>0.2155462973575553</v>
+        <v>0.2216126361316526</v>
       </c>
       <c r="F19">
-        <v>1.320891531290243</v>
+        <v>1.176544563354739</v>
       </c>
       <c r="G19">
-        <v>0.9196429399446089</v>
+        <v>0.7722921468515267</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01033008361463761</v>
+        <v>0.009414177482550024</v>
       </c>
       <c r="J19">
-        <v>0.555236548691866</v>
+        <v>0.5255802232030078</v>
       </c>
       <c r="K19">
-        <v>0.3108893027931252</v>
+        <v>0.2439811750256666</v>
       </c>
       <c r="L19">
-        <v>0.2663946926481628</v>
+        <v>0.1307578554358955</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.06912548168623189</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2617862632627634</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1375,49 +1483,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.022133079632226</v>
+        <v>5.0100446342787</v>
       </c>
       <c r="C20">
-        <v>1.724989770497075</v>
+        <v>1.861695230979365</v>
       </c>
       <c r="D20">
-        <v>0.2215099378890812</v>
+        <v>0.2460234302193953</v>
       </c>
       <c r="E20">
-        <v>0.2234257583182782</v>
+        <v>0.23009966996581</v>
       </c>
       <c r="F20">
-        <v>1.357500401431579</v>
+        <v>1.198225198702346</v>
       </c>
       <c r="G20">
-        <v>0.9468916912416887</v>
+        <v>0.8023828896449885</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01204228917677508</v>
+        <v>0.0107668985561391</v>
       </c>
       <c r="J20">
-        <v>0.5648450589944929</v>
+        <v>0.5121866468515606</v>
       </c>
       <c r="K20">
-        <v>0.3115100724005444</v>
+        <v>0.2396855480068645</v>
       </c>
       <c r="L20">
-        <v>0.2761835084533999</v>
+        <v>0.1275261713735283</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.07019334703985791</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2710339049567807</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1428,49 +1542,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.664060615061203</v>
+        <v>5.641588268459031</v>
       </c>
       <c r="C21">
-        <v>1.949977484467922</v>
+        <v>2.080591227958394</v>
       </c>
       <c r="D21">
-        <v>0.2475160840333785</v>
+        <v>0.2854809616726897</v>
       </c>
       <c r="E21">
-        <v>0.2501809992970934</v>
+        <v>0.2603710482074675</v>
       </c>
       <c r="F21">
-        <v>1.488499350559792</v>
+        <v>1.245405875669931</v>
       </c>
       <c r="G21">
-        <v>1.045599204433373</v>
+        <v>0.9514408481477545</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01860917618882318</v>
+        <v>0.01564058441390337</v>
       </c>
       <c r="J21">
-        <v>0.6008233498271096</v>
+        <v>0.3969799533605141</v>
       </c>
       <c r="K21">
-        <v>0.3169634169694575</v>
+        <v>0.2183215105944356</v>
       </c>
       <c r="L21">
-        <v>0.3098356384823546</v>
+        <v>0.1144132556016118</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07145773383982501</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3017639307991971</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1481,49 +1601,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.086237220242538</v>
+        <v>6.055885576234289</v>
       </c>
       <c r="C22">
-        <v>2.093471756396923</v>
+        <v>2.217893916888329</v>
       </c>
       <c r="D22">
-        <v>0.2639361255096588</v>
+        <v>0.31165474160575</v>
       </c>
       <c r="E22">
-        <v>0.267787344708573</v>
+        <v>0.2805014759947682</v>
       </c>
       <c r="F22">
-        <v>1.583497858862984</v>
+        <v>1.279716176208396</v>
       </c>
       <c r="G22">
-        <v>1.118724529739495</v>
+        <v>1.064256418073398</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.02348422093471392</v>
+        <v>0.01906101136766036</v>
       </c>
       <c r="J22">
-        <v>0.6287380744852271</v>
+        <v>0.3272872170889087</v>
       </c>
       <c r="K22">
-        <v>0.32467519692851</v>
+        <v>0.2064739018219832</v>
       </c>
       <c r="L22">
-        <v>0.332545051383704</v>
+        <v>0.1067919704234264</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.07345850245811292</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3223260853263668</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1534,49 +1660,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.860854263752401</v>
+        <v>5.834976412971628</v>
       </c>
       <c r="C23">
-        <v>2.011354513576521</v>
+        <v>2.142874292517263</v>
       </c>
       <c r="D23">
-        <v>0.2543506337322157</v>
+        <v>0.2957508847736108</v>
       </c>
       <c r="E23">
-        <v>0.258127734363768</v>
+        <v>0.2692111829490713</v>
       </c>
       <c r="F23">
-        <v>1.537960545803458</v>
+        <v>1.272097512583414</v>
       </c>
       <c r="G23">
-        <v>1.084746132359186</v>
+        <v>0.9997042632699902</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0205738433475684</v>
+        <v>0.01691015708664168</v>
       </c>
       <c r="J23">
-        <v>0.6164039316384731</v>
+        <v>0.3785448908506766</v>
       </c>
       <c r="K23">
-        <v>0.3232041693582204</v>
+        <v>0.2164647600640741</v>
       </c>
       <c r="L23">
-        <v>0.3205278787620358</v>
+        <v>0.1120556217331838</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07392552038682254</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3116500007151473</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1587,49 +1719,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.011940425794535</v>
+        <v>4.999960469150267</v>
       </c>
       <c r="C24">
-        <v>1.71320234135527</v>
+        <v>1.850096646930638</v>
       </c>
       <c r="D24">
-        <v>0.219869308195527</v>
+        <v>0.2442873461261996</v>
       </c>
       <c r="E24">
-        <v>0.2226446097780155</v>
+        <v>0.2293071619304143</v>
       </c>
       <c r="F24">
-        <v>1.363865207587196</v>
+        <v>1.204255564789932</v>
       </c>
       <c r="G24">
-        <v>0.9535101079246004</v>
+        <v>0.8074431160038671</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01155418537553832</v>
+        <v>0.0101921106445948</v>
       </c>
       <c r="J24">
-        <v>0.5684483079180467</v>
+        <v>0.5165353939267447</v>
       </c>
       <c r="K24">
-        <v>0.3156934612756075</v>
+        <v>0.2430932379272619</v>
       </c>
       <c r="L24">
-        <v>0.2758812792533121</v>
+        <v>0.1288508752283413</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.07138242605983791</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2707405812182486</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1640,49 +1778,55 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.104267904329561</v>
+        <v>4.101779913546636</v>
       </c>
       <c r="C25">
-        <v>1.39856192844735</v>
+        <v>1.503158776663042</v>
       </c>
       <c r="D25">
-        <v>0.1835959200764989</v>
+        <v>0.2017614070311282</v>
       </c>
       <c r="E25">
-        <v>0.1856695199995073</v>
+        <v>0.1907537207500809</v>
       </c>
       <c r="F25">
-        <v>1.189603703770885</v>
+        <v>1.070524658918686</v>
       </c>
       <c r="G25">
-        <v>0.8232335031409974</v>
+        <v>0.7005671552008295</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.00485135652471147</v>
+        <v>0.0048132264667613</v>
       </c>
       <c r="J25">
-        <v>0.5226611014706037</v>
+        <v>0.4986409179126525</v>
       </c>
       <c r="K25">
-        <v>0.3124401351525883</v>
+        <v>0.254067917021878</v>
       </c>
       <c r="L25">
-        <v>0.2297276934939703</v>
+        <v>0.1406678029460409</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0636574682844504</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2261688730363431</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
